--- a/matrix_1.xlsx
+++ b/matrix_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\django\Project-for-Strategic-agency\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D47254-85DA-4C65-B753-C9B96BDD705A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D53022-190D-42F9-A04B-A876BDB4880E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K </t>
   </si>
   <si>
     <t>L</t>
@@ -265,6 +262,9 @@
   </si>
   <si>
     <t>BZ</t>
+  </si>
+  <si>
+    <t>K</t>
   </si>
 </sst>
 </file>
@@ -585,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BZ79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AY1" workbookViewId="0">
-      <selection activeCell="CA1" sqref="CA1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,208 +623,208 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AF1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
         <v>45</v>
       </c>
-      <c r="AT1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>76</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:78" x14ac:dyDescent="0.25">
